--- a/data/trans_bre/APOYO_SOCIAL_DUKE_CAT-Clase-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_CAT-Clase-trans_bre.xlsx
@@ -604,7 +604,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,49</t>
+          <t>5,13</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -619,7 +619,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>6,87%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -642,12 +642,12 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,24; 11,08</t>
+          <t>-0,67; 10,92</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-10,08; 4,46</t>
+          <t>-9,97; 4,29</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -657,12 +657,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0,31; 14,56</t>
+          <t>-0,76; 14,35</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-16,12; 8,58</t>
+          <t>-16,15; 8,08</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>1,93</t>
+          <t>0,33</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,33%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -722,12 +722,12 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-4,55; 8,33</t>
+          <t>-5,92; 7,6</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-9,36; 7,26</t>
+          <t>-8,22; 6,47</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -737,12 +737,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-5,26; 10,56</t>
+          <t>-6,86; 9,47</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 12,13</t>
+          <t>-11,8; 10,57</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -764,7 +764,7 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,71</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -802,12 +802,12 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 7,56</t>
+          <t>-6,9; 6,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 63,87</t>
+          <t>-7,08; 61,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
@@ -817,12 +817,12 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-6,68; 9,37</t>
+          <t>-8,07; 7,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-8,57; 515,67</t>
+          <t>-9,61; 519,87</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
@@ -844,7 +844,7 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,54</t>
+          <t>7,16</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
@@ -859,7 +859,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8,35%</t>
+          <t>9,07%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -882,12 +882,12 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,55; 11,66</t>
+          <t>1,73; 13,32</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-9,68; 2,8</t>
+          <t>-9,82; 2,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -897,12 +897,12 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,92; 15,46</t>
+          <t>2,08; 17,69</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-13,22; 4,18</t>
+          <t>-13,29; 3,11</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
@@ -924,7 +924,7 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7,85</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
@@ -939,7 +939,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -962,12 +962,12 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,1; 14,01</t>
+          <t>1,05; 14,49</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-34,88; 8,39</t>
+          <t>-34,69; 7,19</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
@@ -977,12 +977,12 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,35; 18,14</t>
+          <t>1,12; 18,73</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-49,94; 12,38</t>
+          <t>-50,03; 10,41</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
@@ -1004,7 +1004,7 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>5,31</t>
+          <t>4,96</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7,33%</t>
+          <t>6,57%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1042,12 +1042,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-4,9; 16,71</t>
+          <t>-4,84; 16,72</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,73; 30,02</t>
+          <t>2,84; 29,42</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1057,12 +1057,12 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-6,0; 26,98</t>
+          <t>-5,84; 25,16</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,42; 80,83</t>
+          <t>4,68; 78,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
@@ -1084,7 +1084,7 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>4,46</t>
+          <t>4,07</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,55%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1122,12 +1122,12 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>1,71; 6,81</t>
+          <t>1,37; 6,72</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,09; 24,97</t>
+          <t>-3,29; 24,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
@@ -1137,12 +1137,12 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>2,07; 8,58</t>
+          <t>1,66; 8,44</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-4,79; 62,42</t>
+          <t>-5,03; 57,13</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">

--- a/data/trans_bre/APOYO_SOCIAL_DUKE_CAT-Clase-trans_bre.xlsx
+++ b/data/trans_bre/APOYO_SOCIAL_DUKE_CAT-Clase-trans_bre.xlsx
@@ -552,32 +552,32 @@
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>Andalucia</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>C.Valenciana</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
           <t>País Vasco</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="F2" s="3" t="inlineStr">
         <is>
           <t>Andalucia</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
         <is>
           <t>C.Valenciana</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>País Vasco</t>
-        </is>
-      </c>
-      <c r="G2" s="3" t="inlineStr">
-        <is>
-          <t>Andalucia</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>C.Valenciana</t>
         </is>
       </c>
     </row>
@@ -604,32 +604,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>-2,62</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>-4,07</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>5,13</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-2,02</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>-4,07</t>
-        </is>
-      </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-4,41%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>-6,58%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
           <t>6,43%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-3,5%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-6,58%</t>
         </is>
       </c>
     </row>
@@ -642,32 +642,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>-10,72; 3,8</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>-10,65; 2,65</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
           <t>-0,67; 10,92</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-9,97; 4,29</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-10,65; 2,65</t>
-        </is>
-      </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
+          <t>-16,38; 6,95</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>-16,35; 4,74</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
           <t>-0,76; 14,35</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-16,15; 8,08</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-16,35; 4,74</t>
         </is>
       </c>
     </row>
@@ -684,32 +684,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>-3,16</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>-5,63</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
           <t>0,33</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-0,83</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-5,63</t>
-        </is>
-      </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>-4,72%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>-8,24%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
           <t>0,4%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-1,27%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-8,24%</t>
         </is>
       </c>
     </row>
@@ -722,32 +722,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
+          <t>-10,38; 4,13</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>-13,0; 1,23</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
           <t>-5,92; 7,6</t>
         </is>
       </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-8,22; 6,47</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-13,0; 1,23</t>
-        </is>
-      </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
+          <t>-14,75; 6,58</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>-17,82; 1,95</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
           <t>-6,86; 9,47</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-11,8; 10,57</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-17,82; 1,95</t>
         </is>
       </c>
     </row>
@@ -764,32 +764,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>-4,87</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>-5,6</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
           <t>0,22</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>32,78</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-5,6</t>
-        </is>
-      </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-6,93%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>-8,67%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
           <t>0,27%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>96,08%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>-8,67%</t>
         </is>
       </c>
     </row>
@@ -802,32 +802,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
+          <t>-16,75; 4,73</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>-15,93; 4,32</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
           <t>-6,9; 6,44</t>
         </is>
       </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-7,08; 61,0</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-15,93; 4,32</t>
-        </is>
-      </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-22,46; 7,1</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>-23,69; 6,98</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
           <t>-8,07; 7,86</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-9,61; 519,87</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>-23,69; 6,98</t>
         </is>
       </c>
     </row>
@@ -844,32 +844,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>-3,56</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>-3,49</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
           <t>7,16</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-3,41</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-3,49</t>
-        </is>
-      </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>-4,97%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>-5,3%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
           <t>9,07%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-4,86%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-5,3%</t>
         </is>
       </c>
     </row>
@@ -882,32 +882,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
+          <t>-9,72; 1,72</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>-9,45; 2,71</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
           <t>1,73; 13,32</t>
         </is>
       </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-9,82; 2,12</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-9,45; 2,71</t>
-        </is>
-      </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
+          <t>-12,91; 2,5</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>-14,04; 4,27</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
           <t>2,08; 17,69</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-13,29; 3,11</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-14,04; 4,27</t>
         </is>
       </c>
     </row>
@@ -924,32 +924,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>5,38</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>5,65</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
           <t>6,58</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>-7,36</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>5,65</t>
-        </is>
-      </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>7,62%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,56%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
           <t>7,8%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>-10,59%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>8,56%</t>
         </is>
       </c>
     </row>
@@ -962,32 +962,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
+          <t>-2,17; 13,45</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 14,16</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
           <t>1,05; 14,49</t>
         </is>
       </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-34,69; 7,19</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-3,52; 14,16</t>
-        </is>
-      </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
+          <t>-2,95; 21,21</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-4,95; 22,95</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
           <t>1,12; 18,73</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>-50,03; 10,41</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>-4,95; 22,95</t>
         </is>
       </c>
     </row>
@@ -1004,32 +1004,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
+          <t>12,57</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>26,35</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
           <t>4,96</t>
         </is>
       </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>15,27</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>26,35</t>
-        </is>
-      </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>23,06%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>39,3%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
           <t>6,57%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>29,87%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>39,3%</t>
         </is>
       </c>
     </row>
@@ -1042,32 +1042,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
+          <t>1,29; 26,32</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>-1,78; 56,55</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>-4,84; 16,72</t>
         </is>
       </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>2,84; 29,42</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>-1,78; 56,55</t>
-        </is>
-      </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
+          <t>2,05; 63,91</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>1,1; 145,91</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
           <t>-5,84; 25,16</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>4,68; 78,73</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>1,1; 145,91</t>
         </is>
       </c>
     </row>
@@ -1084,32 +1084,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>-2,42</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>4,07</t>
         </is>
       </c>
-      <c r="D16" s="2" t="inlineStr">
-        <is>
-          <t>6,39</t>
-        </is>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>-2,42</t>
-        </is>
-      </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>0,21%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>-3,72%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
           <t>5,01%</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>11,14%</t>
-        </is>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>-3,72%</t>
         </is>
       </c>
     </row>
@@ -1122,32 +1122,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
+          <t>-2,67; 3,54</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>-5,57; 0,92</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
           <t>1,37; 6,72</t>
         </is>
       </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>-3,29; 24,29</t>
-        </is>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>-5,57; 0,92</t>
-        </is>
-      </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
+          <t>-3,9; 5,45</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>-8,33; 1,46</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
           <t>1,66; 8,44</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="inlineStr">
-        <is>
-          <t>-5,03; 57,13</t>
-        </is>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>-8,33; 1,46</t>
         </is>
       </c>
     </row>
